--- a/specification_fu-hcm/Report5_Test Report.xlsx
+++ b/specification_fu-hcm/Report5_Test Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiennt/FeStore/MyDrive/MyWorks/FU/SWP49x-Capstones/SWP490_Templates &amp; Samples &amp; student guide/Project Reports_V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giao.lang\Desktop\_cloud.truong.lang\software-testing\specification_fu-hcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE5D689-2D20-004E-855C-B3050AB9E66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="27560" windowHeight="14420" tabRatio="821" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="27564" windowHeight="14424" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="9" r:id="rId1"/>
@@ -19,26 +18,23 @@
     <sheet name="Feature 1" sheetId="3" r:id="rId4"/>
     <sheet name="Feature 2" sheetId="8" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Feature 1'!$A$10:$O$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Feature 2'!$A$10:$O$17</definedName>
     <definedName name="ACTION" localSheetId="0">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{C47225F5-221F-9443-B842-2F7F73318C79}">
+    <comment ref="D10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,12 +103,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tqsang</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{D121D8BB-6284-C446-8956-5046159078EE}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,12 +126,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tqsang</author>
   </authors>
   <commentList>
-    <comment ref="E10" authorId="0" shapeId="0" xr:uid="{8F7F91F9-37CF-7749-A52D-308C7DDBB513}">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
   <si>
     <t>Project Name</t>
   </si>
@@ -334,9 +330,6 @@
     <t>&lt;Test case 5&gt;</t>
   </si>
   <si>
-    <t>&lt;Test case 6&gt;</t>
-  </si>
-  <si>
     <t>&lt;Date when this test report is created&gt;</t>
   </si>
   <si>
@@ -424,9 +417,6 @@
     <t>&lt;ID5&gt;</t>
   </si>
   <si>
-    <t>&lt;ID6&gt;</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -440,12 +430,38 @@
   </si>
   <si>
     <t>&lt;List of documents which are refered in this version.&gt;</t>
+  </si>
+  <si>
+    <t>TC#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHECK/VERIFY LOGIN PROCESS WITH EMPTY USER AND PASS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. OPEN THE APP VIA URL: HTTPS://...  
+2. CLICK LOGIN BUTTON IN THE RIGHT UPPER OF THE HOMEPAGE
+3. INPUT NOTHING IN THE USER AND PASS TEXTBOXES
+4. HIT [LOGIN] BUTTON
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. THE LOGIN FORM IS DISPLAYED WITH TWO EMPTY TEXTBOXES: USER, PASS
+4. THE SYSTEM RAISES AND ERROR MESSAGE AS FOLLOWS:
+"BOTH USERNAME AND PASSWORD ARE REQUIRED!"
+</t>
+  </si>
+  <si>
+    <t>16/1/2025</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Trinh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -1133,7 +1149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,41 +1415,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1450,23 +1432,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1530,15 +1500,67 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Functional Test Case v1.0" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal_Sheet1" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="5" xr:uid="{EEA5E9E7-8D36-4240-9C70-BE5C8BB08911}"/>
-    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal_Functional Test Case v1.0" xfId="2"/>
+    <cellStyle name="Normal_Sheet1" xfId="3"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="5"/>
+    <cellStyle name="標準_結合試験(AllOvertheWorld)" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1630,33 +1652,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Guideline"/>
-      <sheetName val="Cover"/>
-      <sheetName val="Function List"/>
-      <sheetName val="Test Report"/>
-      <sheetName val="Function 1"/>
-      <sheetName val="Function 2"/>
-      <sheetName val="Function3"/>
-      <sheetName val="Example"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2006,618 +2001,618 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F95E7C-3083-0D4D-BE51-7E9C959622A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="149" customWidth="1"/>
-    <col min="2" max="2" width="10" style="118" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="118" customWidth="1"/>
-    <col min="4" max="4" width="8" style="118" customWidth="1"/>
-    <col min="5" max="5" width="38" style="118" customWidth="1"/>
-    <col min="6" max="6" width="48.1640625" style="118" customWidth="1"/>
-    <col min="7" max="256" width="9" style="118"/>
-    <col min="257" max="257" width="28.1640625" style="118" customWidth="1"/>
-    <col min="258" max="258" width="10" style="118" customWidth="1"/>
-    <col min="259" max="259" width="14.33203125" style="118" customWidth="1"/>
-    <col min="260" max="260" width="8" style="118" customWidth="1"/>
-    <col min="261" max="261" width="38" style="118" customWidth="1"/>
-    <col min="262" max="262" width="48.1640625" style="118" customWidth="1"/>
-    <col min="263" max="512" width="9" style="118"/>
-    <col min="513" max="513" width="28.1640625" style="118" customWidth="1"/>
-    <col min="514" max="514" width="10" style="118" customWidth="1"/>
-    <col min="515" max="515" width="14.33203125" style="118" customWidth="1"/>
-    <col min="516" max="516" width="8" style="118" customWidth="1"/>
-    <col min="517" max="517" width="38" style="118" customWidth="1"/>
-    <col min="518" max="518" width="48.1640625" style="118" customWidth="1"/>
-    <col min="519" max="768" width="9" style="118"/>
-    <col min="769" max="769" width="28.1640625" style="118" customWidth="1"/>
-    <col min="770" max="770" width="10" style="118" customWidth="1"/>
-    <col min="771" max="771" width="14.33203125" style="118" customWidth="1"/>
-    <col min="772" max="772" width="8" style="118" customWidth="1"/>
-    <col min="773" max="773" width="38" style="118" customWidth="1"/>
-    <col min="774" max="774" width="48.1640625" style="118" customWidth="1"/>
-    <col min="775" max="1024" width="9" style="118"/>
-    <col min="1025" max="1025" width="28.1640625" style="118" customWidth="1"/>
-    <col min="1026" max="1026" width="10" style="118" customWidth="1"/>
-    <col min="1027" max="1027" width="14.33203125" style="118" customWidth="1"/>
-    <col min="1028" max="1028" width="8" style="118" customWidth="1"/>
-    <col min="1029" max="1029" width="38" style="118" customWidth="1"/>
-    <col min="1030" max="1030" width="48.1640625" style="118" customWidth="1"/>
-    <col min="1031" max="1280" width="9" style="118"/>
-    <col min="1281" max="1281" width="28.1640625" style="118" customWidth="1"/>
-    <col min="1282" max="1282" width="10" style="118" customWidth="1"/>
-    <col min="1283" max="1283" width="14.33203125" style="118" customWidth="1"/>
-    <col min="1284" max="1284" width="8" style="118" customWidth="1"/>
-    <col min="1285" max="1285" width="38" style="118" customWidth="1"/>
-    <col min="1286" max="1286" width="48.1640625" style="118" customWidth="1"/>
-    <col min="1287" max="1536" width="9" style="118"/>
-    <col min="1537" max="1537" width="28.1640625" style="118" customWidth="1"/>
-    <col min="1538" max="1538" width="10" style="118" customWidth="1"/>
-    <col min="1539" max="1539" width="14.33203125" style="118" customWidth="1"/>
-    <col min="1540" max="1540" width="8" style="118" customWidth="1"/>
-    <col min="1541" max="1541" width="38" style="118" customWidth="1"/>
-    <col min="1542" max="1542" width="48.1640625" style="118" customWidth="1"/>
-    <col min="1543" max="1792" width="9" style="118"/>
-    <col min="1793" max="1793" width="28.1640625" style="118" customWidth="1"/>
-    <col min="1794" max="1794" width="10" style="118" customWidth="1"/>
-    <col min="1795" max="1795" width="14.33203125" style="118" customWidth="1"/>
-    <col min="1796" max="1796" width="8" style="118" customWidth="1"/>
-    <col min="1797" max="1797" width="38" style="118" customWidth="1"/>
-    <col min="1798" max="1798" width="48.1640625" style="118" customWidth="1"/>
-    <col min="1799" max="2048" width="9" style="118"/>
-    <col min="2049" max="2049" width="28.1640625" style="118" customWidth="1"/>
-    <col min="2050" max="2050" width="10" style="118" customWidth="1"/>
-    <col min="2051" max="2051" width="14.33203125" style="118" customWidth="1"/>
-    <col min="2052" max="2052" width="8" style="118" customWidth="1"/>
-    <col min="2053" max="2053" width="38" style="118" customWidth="1"/>
-    <col min="2054" max="2054" width="48.1640625" style="118" customWidth="1"/>
-    <col min="2055" max="2304" width="9" style="118"/>
-    <col min="2305" max="2305" width="28.1640625" style="118" customWidth="1"/>
-    <col min="2306" max="2306" width="10" style="118" customWidth="1"/>
-    <col min="2307" max="2307" width="14.33203125" style="118" customWidth="1"/>
-    <col min="2308" max="2308" width="8" style="118" customWidth="1"/>
-    <col min="2309" max="2309" width="38" style="118" customWidth="1"/>
-    <col min="2310" max="2310" width="48.1640625" style="118" customWidth="1"/>
-    <col min="2311" max="2560" width="9" style="118"/>
-    <col min="2561" max="2561" width="28.1640625" style="118" customWidth="1"/>
-    <col min="2562" max="2562" width="10" style="118" customWidth="1"/>
-    <col min="2563" max="2563" width="14.33203125" style="118" customWidth="1"/>
-    <col min="2564" max="2564" width="8" style="118" customWidth="1"/>
-    <col min="2565" max="2565" width="38" style="118" customWidth="1"/>
-    <col min="2566" max="2566" width="48.1640625" style="118" customWidth="1"/>
-    <col min="2567" max="2816" width="9" style="118"/>
-    <col min="2817" max="2817" width="28.1640625" style="118" customWidth="1"/>
-    <col min="2818" max="2818" width="10" style="118" customWidth="1"/>
-    <col min="2819" max="2819" width="14.33203125" style="118" customWidth="1"/>
-    <col min="2820" max="2820" width="8" style="118" customWidth="1"/>
-    <col min="2821" max="2821" width="38" style="118" customWidth="1"/>
-    <col min="2822" max="2822" width="48.1640625" style="118" customWidth="1"/>
-    <col min="2823" max="3072" width="9" style="118"/>
-    <col min="3073" max="3073" width="28.1640625" style="118" customWidth="1"/>
-    <col min="3074" max="3074" width="10" style="118" customWidth="1"/>
-    <col min="3075" max="3075" width="14.33203125" style="118" customWidth="1"/>
-    <col min="3076" max="3076" width="8" style="118" customWidth="1"/>
-    <col min="3077" max="3077" width="38" style="118" customWidth="1"/>
-    <col min="3078" max="3078" width="48.1640625" style="118" customWidth="1"/>
-    <col min="3079" max="3328" width="9" style="118"/>
-    <col min="3329" max="3329" width="28.1640625" style="118" customWidth="1"/>
-    <col min="3330" max="3330" width="10" style="118" customWidth="1"/>
-    <col min="3331" max="3331" width="14.33203125" style="118" customWidth="1"/>
-    <col min="3332" max="3332" width="8" style="118" customWidth="1"/>
-    <col min="3333" max="3333" width="38" style="118" customWidth="1"/>
-    <col min="3334" max="3334" width="48.1640625" style="118" customWidth="1"/>
-    <col min="3335" max="3584" width="9" style="118"/>
-    <col min="3585" max="3585" width="28.1640625" style="118" customWidth="1"/>
-    <col min="3586" max="3586" width="10" style="118" customWidth="1"/>
-    <col min="3587" max="3587" width="14.33203125" style="118" customWidth="1"/>
-    <col min="3588" max="3588" width="8" style="118" customWidth="1"/>
-    <col min="3589" max="3589" width="38" style="118" customWidth="1"/>
-    <col min="3590" max="3590" width="48.1640625" style="118" customWidth="1"/>
-    <col min="3591" max="3840" width="9" style="118"/>
-    <col min="3841" max="3841" width="28.1640625" style="118" customWidth="1"/>
-    <col min="3842" max="3842" width="10" style="118" customWidth="1"/>
-    <col min="3843" max="3843" width="14.33203125" style="118" customWidth="1"/>
-    <col min="3844" max="3844" width="8" style="118" customWidth="1"/>
-    <col min="3845" max="3845" width="38" style="118" customWidth="1"/>
-    <col min="3846" max="3846" width="48.1640625" style="118" customWidth="1"/>
-    <col min="3847" max="4096" width="9" style="118"/>
-    <col min="4097" max="4097" width="28.1640625" style="118" customWidth="1"/>
-    <col min="4098" max="4098" width="10" style="118" customWidth="1"/>
-    <col min="4099" max="4099" width="14.33203125" style="118" customWidth="1"/>
-    <col min="4100" max="4100" width="8" style="118" customWidth="1"/>
-    <col min="4101" max="4101" width="38" style="118" customWidth="1"/>
-    <col min="4102" max="4102" width="48.1640625" style="118" customWidth="1"/>
-    <col min="4103" max="4352" width="9" style="118"/>
-    <col min="4353" max="4353" width="28.1640625" style="118" customWidth="1"/>
-    <col min="4354" max="4354" width="10" style="118" customWidth="1"/>
-    <col min="4355" max="4355" width="14.33203125" style="118" customWidth="1"/>
-    <col min="4356" max="4356" width="8" style="118" customWidth="1"/>
-    <col min="4357" max="4357" width="38" style="118" customWidth="1"/>
-    <col min="4358" max="4358" width="48.1640625" style="118" customWidth="1"/>
-    <col min="4359" max="4608" width="9" style="118"/>
-    <col min="4609" max="4609" width="28.1640625" style="118" customWidth="1"/>
-    <col min="4610" max="4610" width="10" style="118" customWidth="1"/>
-    <col min="4611" max="4611" width="14.33203125" style="118" customWidth="1"/>
-    <col min="4612" max="4612" width="8" style="118" customWidth="1"/>
-    <col min="4613" max="4613" width="38" style="118" customWidth="1"/>
-    <col min="4614" max="4614" width="48.1640625" style="118" customWidth="1"/>
-    <col min="4615" max="4864" width="9" style="118"/>
-    <col min="4865" max="4865" width="28.1640625" style="118" customWidth="1"/>
-    <col min="4866" max="4866" width="10" style="118" customWidth="1"/>
-    <col min="4867" max="4867" width="14.33203125" style="118" customWidth="1"/>
-    <col min="4868" max="4868" width="8" style="118" customWidth="1"/>
-    <col min="4869" max="4869" width="38" style="118" customWidth="1"/>
-    <col min="4870" max="4870" width="48.1640625" style="118" customWidth="1"/>
-    <col min="4871" max="5120" width="9" style="118"/>
-    <col min="5121" max="5121" width="28.1640625" style="118" customWidth="1"/>
-    <col min="5122" max="5122" width="10" style="118" customWidth="1"/>
-    <col min="5123" max="5123" width="14.33203125" style="118" customWidth="1"/>
-    <col min="5124" max="5124" width="8" style="118" customWidth="1"/>
-    <col min="5125" max="5125" width="38" style="118" customWidth="1"/>
-    <col min="5126" max="5126" width="48.1640625" style="118" customWidth="1"/>
-    <col min="5127" max="5376" width="9" style="118"/>
-    <col min="5377" max="5377" width="28.1640625" style="118" customWidth="1"/>
-    <col min="5378" max="5378" width="10" style="118" customWidth="1"/>
-    <col min="5379" max="5379" width="14.33203125" style="118" customWidth="1"/>
-    <col min="5380" max="5380" width="8" style="118" customWidth="1"/>
-    <col min="5381" max="5381" width="38" style="118" customWidth="1"/>
-    <col min="5382" max="5382" width="48.1640625" style="118" customWidth="1"/>
-    <col min="5383" max="5632" width="9" style="118"/>
-    <col min="5633" max="5633" width="28.1640625" style="118" customWidth="1"/>
-    <col min="5634" max="5634" width="10" style="118" customWidth="1"/>
-    <col min="5635" max="5635" width="14.33203125" style="118" customWidth="1"/>
-    <col min="5636" max="5636" width="8" style="118" customWidth="1"/>
-    <col min="5637" max="5637" width="38" style="118" customWidth="1"/>
-    <col min="5638" max="5638" width="48.1640625" style="118" customWidth="1"/>
-    <col min="5639" max="5888" width="9" style="118"/>
-    <col min="5889" max="5889" width="28.1640625" style="118" customWidth="1"/>
-    <col min="5890" max="5890" width="10" style="118" customWidth="1"/>
-    <col min="5891" max="5891" width="14.33203125" style="118" customWidth="1"/>
-    <col min="5892" max="5892" width="8" style="118" customWidth="1"/>
-    <col min="5893" max="5893" width="38" style="118" customWidth="1"/>
-    <col min="5894" max="5894" width="48.1640625" style="118" customWidth="1"/>
-    <col min="5895" max="6144" width="9" style="118"/>
-    <col min="6145" max="6145" width="28.1640625" style="118" customWidth="1"/>
-    <col min="6146" max="6146" width="10" style="118" customWidth="1"/>
-    <col min="6147" max="6147" width="14.33203125" style="118" customWidth="1"/>
-    <col min="6148" max="6148" width="8" style="118" customWidth="1"/>
-    <col min="6149" max="6149" width="38" style="118" customWidth="1"/>
-    <col min="6150" max="6150" width="48.1640625" style="118" customWidth="1"/>
-    <col min="6151" max="6400" width="9" style="118"/>
-    <col min="6401" max="6401" width="28.1640625" style="118" customWidth="1"/>
-    <col min="6402" max="6402" width="10" style="118" customWidth="1"/>
-    <col min="6403" max="6403" width="14.33203125" style="118" customWidth="1"/>
-    <col min="6404" max="6404" width="8" style="118" customWidth="1"/>
-    <col min="6405" max="6405" width="38" style="118" customWidth="1"/>
-    <col min="6406" max="6406" width="48.1640625" style="118" customWidth="1"/>
-    <col min="6407" max="6656" width="9" style="118"/>
-    <col min="6657" max="6657" width="28.1640625" style="118" customWidth="1"/>
-    <col min="6658" max="6658" width="10" style="118" customWidth="1"/>
-    <col min="6659" max="6659" width="14.33203125" style="118" customWidth="1"/>
-    <col min="6660" max="6660" width="8" style="118" customWidth="1"/>
-    <col min="6661" max="6661" width="38" style="118" customWidth="1"/>
-    <col min="6662" max="6662" width="48.1640625" style="118" customWidth="1"/>
-    <col min="6663" max="6912" width="9" style="118"/>
-    <col min="6913" max="6913" width="28.1640625" style="118" customWidth="1"/>
-    <col min="6914" max="6914" width="10" style="118" customWidth="1"/>
-    <col min="6915" max="6915" width="14.33203125" style="118" customWidth="1"/>
-    <col min="6916" max="6916" width="8" style="118" customWidth="1"/>
-    <col min="6917" max="6917" width="38" style="118" customWidth="1"/>
-    <col min="6918" max="6918" width="48.1640625" style="118" customWidth="1"/>
-    <col min="6919" max="7168" width="9" style="118"/>
-    <col min="7169" max="7169" width="28.1640625" style="118" customWidth="1"/>
-    <col min="7170" max="7170" width="10" style="118" customWidth="1"/>
-    <col min="7171" max="7171" width="14.33203125" style="118" customWidth="1"/>
-    <col min="7172" max="7172" width="8" style="118" customWidth="1"/>
-    <col min="7173" max="7173" width="38" style="118" customWidth="1"/>
-    <col min="7174" max="7174" width="48.1640625" style="118" customWidth="1"/>
-    <col min="7175" max="7424" width="9" style="118"/>
-    <col min="7425" max="7425" width="28.1640625" style="118" customWidth="1"/>
-    <col min="7426" max="7426" width="10" style="118" customWidth="1"/>
-    <col min="7427" max="7427" width="14.33203125" style="118" customWidth="1"/>
-    <col min="7428" max="7428" width="8" style="118" customWidth="1"/>
-    <col min="7429" max="7429" width="38" style="118" customWidth="1"/>
-    <col min="7430" max="7430" width="48.1640625" style="118" customWidth="1"/>
-    <col min="7431" max="7680" width="9" style="118"/>
-    <col min="7681" max="7681" width="28.1640625" style="118" customWidth="1"/>
-    <col min="7682" max="7682" width="10" style="118" customWidth="1"/>
-    <col min="7683" max="7683" width="14.33203125" style="118" customWidth="1"/>
-    <col min="7684" max="7684" width="8" style="118" customWidth="1"/>
-    <col min="7685" max="7685" width="38" style="118" customWidth="1"/>
-    <col min="7686" max="7686" width="48.1640625" style="118" customWidth="1"/>
-    <col min="7687" max="7936" width="9" style="118"/>
-    <col min="7937" max="7937" width="28.1640625" style="118" customWidth="1"/>
-    <col min="7938" max="7938" width="10" style="118" customWidth="1"/>
-    <col min="7939" max="7939" width="14.33203125" style="118" customWidth="1"/>
-    <col min="7940" max="7940" width="8" style="118" customWidth="1"/>
-    <col min="7941" max="7941" width="38" style="118" customWidth="1"/>
-    <col min="7942" max="7942" width="48.1640625" style="118" customWidth="1"/>
-    <col min="7943" max="8192" width="9" style="118"/>
-    <col min="8193" max="8193" width="28.1640625" style="118" customWidth="1"/>
-    <col min="8194" max="8194" width="10" style="118" customWidth="1"/>
-    <col min="8195" max="8195" width="14.33203125" style="118" customWidth="1"/>
-    <col min="8196" max="8196" width="8" style="118" customWidth="1"/>
-    <col min="8197" max="8197" width="38" style="118" customWidth="1"/>
-    <col min="8198" max="8198" width="48.1640625" style="118" customWidth="1"/>
-    <col min="8199" max="8448" width="9" style="118"/>
-    <col min="8449" max="8449" width="28.1640625" style="118" customWidth="1"/>
-    <col min="8450" max="8450" width="10" style="118" customWidth="1"/>
-    <col min="8451" max="8451" width="14.33203125" style="118" customWidth="1"/>
-    <col min="8452" max="8452" width="8" style="118" customWidth="1"/>
-    <col min="8453" max="8453" width="38" style="118" customWidth="1"/>
-    <col min="8454" max="8454" width="48.1640625" style="118" customWidth="1"/>
-    <col min="8455" max="8704" width="9" style="118"/>
-    <col min="8705" max="8705" width="28.1640625" style="118" customWidth="1"/>
-    <col min="8706" max="8706" width="10" style="118" customWidth="1"/>
-    <col min="8707" max="8707" width="14.33203125" style="118" customWidth="1"/>
-    <col min="8708" max="8708" width="8" style="118" customWidth="1"/>
-    <col min="8709" max="8709" width="38" style="118" customWidth="1"/>
-    <col min="8710" max="8710" width="48.1640625" style="118" customWidth="1"/>
-    <col min="8711" max="8960" width="9" style="118"/>
-    <col min="8961" max="8961" width="28.1640625" style="118" customWidth="1"/>
-    <col min="8962" max="8962" width="10" style="118" customWidth="1"/>
-    <col min="8963" max="8963" width="14.33203125" style="118" customWidth="1"/>
-    <col min="8964" max="8964" width="8" style="118" customWidth="1"/>
-    <col min="8965" max="8965" width="38" style="118" customWidth="1"/>
-    <col min="8966" max="8966" width="48.1640625" style="118" customWidth="1"/>
-    <col min="8967" max="9216" width="9" style="118"/>
-    <col min="9217" max="9217" width="28.1640625" style="118" customWidth="1"/>
-    <col min="9218" max="9218" width="10" style="118" customWidth="1"/>
-    <col min="9219" max="9219" width="14.33203125" style="118" customWidth="1"/>
-    <col min="9220" max="9220" width="8" style="118" customWidth="1"/>
-    <col min="9221" max="9221" width="38" style="118" customWidth="1"/>
-    <col min="9222" max="9222" width="48.1640625" style="118" customWidth="1"/>
-    <col min="9223" max="9472" width="9" style="118"/>
-    <col min="9473" max="9473" width="28.1640625" style="118" customWidth="1"/>
-    <col min="9474" max="9474" width="10" style="118" customWidth="1"/>
-    <col min="9475" max="9475" width="14.33203125" style="118" customWidth="1"/>
-    <col min="9476" max="9476" width="8" style="118" customWidth="1"/>
-    <col min="9477" max="9477" width="38" style="118" customWidth="1"/>
-    <col min="9478" max="9478" width="48.1640625" style="118" customWidth="1"/>
-    <col min="9479" max="9728" width="9" style="118"/>
-    <col min="9729" max="9729" width="28.1640625" style="118" customWidth="1"/>
-    <col min="9730" max="9730" width="10" style="118" customWidth="1"/>
-    <col min="9731" max="9731" width="14.33203125" style="118" customWidth="1"/>
-    <col min="9732" max="9732" width="8" style="118" customWidth="1"/>
-    <col min="9733" max="9733" width="38" style="118" customWidth="1"/>
-    <col min="9734" max="9734" width="48.1640625" style="118" customWidth="1"/>
-    <col min="9735" max="9984" width="9" style="118"/>
-    <col min="9985" max="9985" width="28.1640625" style="118" customWidth="1"/>
-    <col min="9986" max="9986" width="10" style="118" customWidth="1"/>
-    <col min="9987" max="9987" width="14.33203125" style="118" customWidth="1"/>
-    <col min="9988" max="9988" width="8" style="118" customWidth="1"/>
-    <col min="9989" max="9989" width="38" style="118" customWidth="1"/>
-    <col min="9990" max="9990" width="48.1640625" style="118" customWidth="1"/>
-    <col min="9991" max="10240" width="9" style="118"/>
-    <col min="10241" max="10241" width="28.1640625" style="118" customWidth="1"/>
-    <col min="10242" max="10242" width="10" style="118" customWidth="1"/>
-    <col min="10243" max="10243" width="14.33203125" style="118" customWidth="1"/>
-    <col min="10244" max="10244" width="8" style="118" customWidth="1"/>
-    <col min="10245" max="10245" width="38" style="118" customWidth="1"/>
-    <col min="10246" max="10246" width="48.1640625" style="118" customWidth="1"/>
-    <col min="10247" max="10496" width="9" style="118"/>
-    <col min="10497" max="10497" width="28.1640625" style="118" customWidth="1"/>
-    <col min="10498" max="10498" width="10" style="118" customWidth="1"/>
-    <col min="10499" max="10499" width="14.33203125" style="118" customWidth="1"/>
-    <col min="10500" max="10500" width="8" style="118" customWidth="1"/>
-    <col min="10501" max="10501" width="38" style="118" customWidth="1"/>
-    <col min="10502" max="10502" width="48.1640625" style="118" customWidth="1"/>
-    <col min="10503" max="10752" width="9" style="118"/>
-    <col min="10753" max="10753" width="28.1640625" style="118" customWidth="1"/>
-    <col min="10754" max="10754" width="10" style="118" customWidth="1"/>
-    <col min="10755" max="10755" width="14.33203125" style="118" customWidth="1"/>
-    <col min="10756" max="10756" width="8" style="118" customWidth="1"/>
-    <col min="10757" max="10757" width="38" style="118" customWidth="1"/>
-    <col min="10758" max="10758" width="48.1640625" style="118" customWidth="1"/>
-    <col min="10759" max="11008" width="9" style="118"/>
-    <col min="11009" max="11009" width="28.1640625" style="118" customWidth="1"/>
-    <col min="11010" max="11010" width="10" style="118" customWidth="1"/>
-    <col min="11011" max="11011" width="14.33203125" style="118" customWidth="1"/>
-    <col min="11012" max="11012" width="8" style="118" customWidth="1"/>
-    <col min="11013" max="11013" width="38" style="118" customWidth="1"/>
-    <col min="11014" max="11014" width="48.1640625" style="118" customWidth="1"/>
-    <col min="11015" max="11264" width="9" style="118"/>
-    <col min="11265" max="11265" width="28.1640625" style="118" customWidth="1"/>
-    <col min="11266" max="11266" width="10" style="118" customWidth="1"/>
-    <col min="11267" max="11267" width="14.33203125" style="118" customWidth="1"/>
-    <col min="11268" max="11268" width="8" style="118" customWidth="1"/>
-    <col min="11269" max="11269" width="38" style="118" customWidth="1"/>
-    <col min="11270" max="11270" width="48.1640625" style="118" customWidth="1"/>
-    <col min="11271" max="11520" width="9" style="118"/>
-    <col min="11521" max="11521" width="28.1640625" style="118" customWidth="1"/>
-    <col min="11522" max="11522" width="10" style="118" customWidth="1"/>
-    <col min="11523" max="11523" width="14.33203125" style="118" customWidth="1"/>
-    <col min="11524" max="11524" width="8" style="118" customWidth="1"/>
-    <col min="11525" max="11525" width="38" style="118" customWidth="1"/>
-    <col min="11526" max="11526" width="48.1640625" style="118" customWidth="1"/>
-    <col min="11527" max="11776" width="9" style="118"/>
-    <col min="11777" max="11777" width="28.1640625" style="118" customWidth="1"/>
-    <col min="11778" max="11778" width="10" style="118" customWidth="1"/>
-    <col min="11779" max="11779" width="14.33203125" style="118" customWidth="1"/>
-    <col min="11780" max="11780" width="8" style="118" customWidth="1"/>
-    <col min="11781" max="11781" width="38" style="118" customWidth="1"/>
-    <col min="11782" max="11782" width="48.1640625" style="118" customWidth="1"/>
-    <col min="11783" max="12032" width="9" style="118"/>
-    <col min="12033" max="12033" width="28.1640625" style="118" customWidth="1"/>
-    <col min="12034" max="12034" width="10" style="118" customWidth="1"/>
-    <col min="12035" max="12035" width="14.33203125" style="118" customWidth="1"/>
-    <col min="12036" max="12036" width="8" style="118" customWidth="1"/>
-    <col min="12037" max="12037" width="38" style="118" customWidth="1"/>
-    <col min="12038" max="12038" width="48.1640625" style="118" customWidth="1"/>
-    <col min="12039" max="12288" width="9" style="118"/>
-    <col min="12289" max="12289" width="28.1640625" style="118" customWidth="1"/>
-    <col min="12290" max="12290" width="10" style="118" customWidth="1"/>
-    <col min="12291" max="12291" width="14.33203125" style="118" customWidth="1"/>
-    <col min="12292" max="12292" width="8" style="118" customWidth="1"/>
-    <col min="12293" max="12293" width="38" style="118" customWidth="1"/>
-    <col min="12294" max="12294" width="48.1640625" style="118" customWidth="1"/>
-    <col min="12295" max="12544" width="9" style="118"/>
-    <col min="12545" max="12545" width="28.1640625" style="118" customWidth="1"/>
-    <col min="12546" max="12546" width="10" style="118" customWidth="1"/>
-    <col min="12547" max="12547" width="14.33203125" style="118" customWidth="1"/>
-    <col min="12548" max="12548" width="8" style="118" customWidth="1"/>
-    <col min="12549" max="12549" width="38" style="118" customWidth="1"/>
-    <col min="12550" max="12550" width="48.1640625" style="118" customWidth="1"/>
-    <col min="12551" max="12800" width="9" style="118"/>
-    <col min="12801" max="12801" width="28.1640625" style="118" customWidth="1"/>
-    <col min="12802" max="12802" width="10" style="118" customWidth="1"/>
-    <col min="12803" max="12803" width="14.33203125" style="118" customWidth="1"/>
-    <col min="12804" max="12804" width="8" style="118" customWidth="1"/>
-    <col min="12805" max="12805" width="38" style="118" customWidth="1"/>
-    <col min="12806" max="12806" width="48.1640625" style="118" customWidth="1"/>
-    <col min="12807" max="13056" width="9" style="118"/>
-    <col min="13057" max="13057" width="28.1640625" style="118" customWidth="1"/>
-    <col min="13058" max="13058" width="10" style="118" customWidth="1"/>
-    <col min="13059" max="13059" width="14.33203125" style="118" customWidth="1"/>
-    <col min="13060" max="13060" width="8" style="118" customWidth="1"/>
-    <col min="13061" max="13061" width="38" style="118" customWidth="1"/>
-    <col min="13062" max="13062" width="48.1640625" style="118" customWidth="1"/>
-    <col min="13063" max="13312" width="9" style="118"/>
-    <col min="13313" max="13313" width="28.1640625" style="118" customWidth="1"/>
-    <col min="13314" max="13314" width="10" style="118" customWidth="1"/>
-    <col min="13315" max="13315" width="14.33203125" style="118" customWidth="1"/>
-    <col min="13316" max="13316" width="8" style="118" customWidth="1"/>
-    <col min="13317" max="13317" width="38" style="118" customWidth="1"/>
-    <col min="13318" max="13318" width="48.1640625" style="118" customWidth="1"/>
-    <col min="13319" max="13568" width="9" style="118"/>
-    <col min="13569" max="13569" width="28.1640625" style="118" customWidth="1"/>
-    <col min="13570" max="13570" width="10" style="118" customWidth="1"/>
-    <col min="13571" max="13571" width="14.33203125" style="118" customWidth="1"/>
-    <col min="13572" max="13572" width="8" style="118" customWidth="1"/>
-    <col min="13573" max="13573" width="38" style="118" customWidth="1"/>
-    <col min="13574" max="13574" width="48.1640625" style="118" customWidth="1"/>
-    <col min="13575" max="13824" width="9" style="118"/>
-    <col min="13825" max="13825" width="28.1640625" style="118" customWidth="1"/>
-    <col min="13826" max="13826" width="10" style="118" customWidth="1"/>
-    <col min="13827" max="13827" width="14.33203125" style="118" customWidth="1"/>
-    <col min="13828" max="13828" width="8" style="118" customWidth="1"/>
-    <col min="13829" max="13829" width="38" style="118" customWidth="1"/>
-    <col min="13830" max="13830" width="48.1640625" style="118" customWidth="1"/>
-    <col min="13831" max="14080" width="9" style="118"/>
-    <col min="14081" max="14081" width="28.1640625" style="118" customWidth="1"/>
-    <col min="14082" max="14082" width="10" style="118" customWidth="1"/>
-    <col min="14083" max="14083" width="14.33203125" style="118" customWidth="1"/>
-    <col min="14084" max="14084" width="8" style="118" customWidth="1"/>
-    <col min="14085" max="14085" width="38" style="118" customWidth="1"/>
-    <col min="14086" max="14086" width="48.1640625" style="118" customWidth="1"/>
-    <col min="14087" max="14336" width="9" style="118"/>
-    <col min="14337" max="14337" width="28.1640625" style="118" customWidth="1"/>
-    <col min="14338" max="14338" width="10" style="118" customWidth="1"/>
-    <col min="14339" max="14339" width="14.33203125" style="118" customWidth="1"/>
-    <col min="14340" max="14340" width="8" style="118" customWidth="1"/>
-    <col min="14341" max="14341" width="38" style="118" customWidth="1"/>
-    <col min="14342" max="14342" width="48.1640625" style="118" customWidth="1"/>
-    <col min="14343" max="14592" width="9" style="118"/>
-    <col min="14593" max="14593" width="28.1640625" style="118" customWidth="1"/>
-    <col min="14594" max="14594" width="10" style="118" customWidth="1"/>
-    <col min="14595" max="14595" width="14.33203125" style="118" customWidth="1"/>
-    <col min="14596" max="14596" width="8" style="118" customWidth="1"/>
-    <col min="14597" max="14597" width="38" style="118" customWidth="1"/>
-    <col min="14598" max="14598" width="48.1640625" style="118" customWidth="1"/>
-    <col min="14599" max="14848" width="9" style="118"/>
-    <col min="14849" max="14849" width="28.1640625" style="118" customWidth="1"/>
-    <col min="14850" max="14850" width="10" style="118" customWidth="1"/>
-    <col min="14851" max="14851" width="14.33203125" style="118" customWidth="1"/>
-    <col min="14852" max="14852" width="8" style="118" customWidth="1"/>
-    <col min="14853" max="14853" width="38" style="118" customWidth="1"/>
-    <col min="14854" max="14854" width="48.1640625" style="118" customWidth="1"/>
-    <col min="14855" max="15104" width="9" style="118"/>
-    <col min="15105" max="15105" width="28.1640625" style="118" customWidth="1"/>
-    <col min="15106" max="15106" width="10" style="118" customWidth="1"/>
-    <col min="15107" max="15107" width="14.33203125" style="118" customWidth="1"/>
-    <col min="15108" max="15108" width="8" style="118" customWidth="1"/>
-    <col min="15109" max="15109" width="38" style="118" customWidth="1"/>
-    <col min="15110" max="15110" width="48.1640625" style="118" customWidth="1"/>
-    <col min="15111" max="15360" width="9" style="118"/>
-    <col min="15361" max="15361" width="28.1640625" style="118" customWidth="1"/>
-    <col min="15362" max="15362" width="10" style="118" customWidth="1"/>
-    <col min="15363" max="15363" width="14.33203125" style="118" customWidth="1"/>
-    <col min="15364" max="15364" width="8" style="118" customWidth="1"/>
-    <col min="15365" max="15365" width="38" style="118" customWidth="1"/>
-    <col min="15366" max="15366" width="48.1640625" style="118" customWidth="1"/>
-    <col min="15367" max="15616" width="9" style="118"/>
-    <col min="15617" max="15617" width="28.1640625" style="118" customWidth="1"/>
-    <col min="15618" max="15618" width="10" style="118" customWidth="1"/>
-    <col min="15619" max="15619" width="14.33203125" style="118" customWidth="1"/>
-    <col min="15620" max="15620" width="8" style="118" customWidth="1"/>
-    <col min="15621" max="15621" width="38" style="118" customWidth="1"/>
-    <col min="15622" max="15622" width="48.1640625" style="118" customWidth="1"/>
-    <col min="15623" max="15872" width="9" style="118"/>
-    <col min="15873" max="15873" width="28.1640625" style="118" customWidth="1"/>
-    <col min="15874" max="15874" width="10" style="118" customWidth="1"/>
-    <col min="15875" max="15875" width="14.33203125" style="118" customWidth="1"/>
-    <col min="15876" max="15876" width="8" style="118" customWidth="1"/>
-    <col min="15877" max="15877" width="38" style="118" customWidth="1"/>
-    <col min="15878" max="15878" width="48.1640625" style="118" customWidth="1"/>
-    <col min="15879" max="16128" width="9" style="118"/>
-    <col min="16129" max="16129" width="28.1640625" style="118" customWidth="1"/>
-    <col min="16130" max="16130" width="10" style="118" customWidth="1"/>
-    <col min="16131" max="16131" width="14.33203125" style="118" customWidth="1"/>
-    <col min="16132" max="16132" width="8" style="118" customWidth="1"/>
-    <col min="16133" max="16133" width="38" style="118" customWidth="1"/>
-    <col min="16134" max="16134" width="48.1640625" style="118" customWidth="1"/>
-    <col min="16135" max="16384" width="9" style="118"/>
+    <col min="1" max="1" width="28.109375" style="133" customWidth="1"/>
+    <col min="2" max="2" width="10" style="106" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="106" customWidth="1"/>
+    <col min="4" max="4" width="8" style="106" customWidth="1"/>
+    <col min="5" max="5" width="38" style="106" customWidth="1"/>
+    <col min="6" max="6" width="48.109375" style="106" customWidth="1"/>
+    <col min="7" max="256" width="9" style="106"/>
+    <col min="257" max="257" width="28.109375" style="106" customWidth="1"/>
+    <col min="258" max="258" width="10" style="106" customWidth="1"/>
+    <col min="259" max="259" width="14.33203125" style="106" customWidth="1"/>
+    <col min="260" max="260" width="8" style="106" customWidth="1"/>
+    <col min="261" max="261" width="38" style="106" customWidth="1"/>
+    <col min="262" max="262" width="48.109375" style="106" customWidth="1"/>
+    <col min="263" max="512" width="9" style="106"/>
+    <col min="513" max="513" width="28.109375" style="106" customWidth="1"/>
+    <col min="514" max="514" width="10" style="106" customWidth="1"/>
+    <col min="515" max="515" width="14.33203125" style="106" customWidth="1"/>
+    <col min="516" max="516" width="8" style="106" customWidth="1"/>
+    <col min="517" max="517" width="38" style="106" customWidth="1"/>
+    <col min="518" max="518" width="48.109375" style="106" customWidth="1"/>
+    <col min="519" max="768" width="9" style="106"/>
+    <col min="769" max="769" width="28.109375" style="106" customWidth="1"/>
+    <col min="770" max="770" width="10" style="106" customWidth="1"/>
+    <col min="771" max="771" width="14.33203125" style="106" customWidth="1"/>
+    <col min="772" max="772" width="8" style="106" customWidth="1"/>
+    <col min="773" max="773" width="38" style="106" customWidth="1"/>
+    <col min="774" max="774" width="48.109375" style="106" customWidth="1"/>
+    <col min="775" max="1024" width="9" style="106"/>
+    <col min="1025" max="1025" width="28.109375" style="106" customWidth="1"/>
+    <col min="1026" max="1026" width="10" style="106" customWidth="1"/>
+    <col min="1027" max="1027" width="14.33203125" style="106" customWidth="1"/>
+    <col min="1028" max="1028" width="8" style="106" customWidth="1"/>
+    <col min="1029" max="1029" width="38" style="106" customWidth="1"/>
+    <col min="1030" max="1030" width="48.109375" style="106" customWidth="1"/>
+    <col min="1031" max="1280" width="9" style="106"/>
+    <col min="1281" max="1281" width="28.109375" style="106" customWidth="1"/>
+    <col min="1282" max="1282" width="10" style="106" customWidth="1"/>
+    <col min="1283" max="1283" width="14.33203125" style="106" customWidth="1"/>
+    <col min="1284" max="1284" width="8" style="106" customWidth="1"/>
+    <col min="1285" max="1285" width="38" style="106" customWidth="1"/>
+    <col min="1286" max="1286" width="48.109375" style="106" customWidth="1"/>
+    <col min="1287" max="1536" width="9" style="106"/>
+    <col min="1537" max="1537" width="28.109375" style="106" customWidth="1"/>
+    <col min="1538" max="1538" width="10" style="106" customWidth="1"/>
+    <col min="1539" max="1539" width="14.33203125" style="106" customWidth="1"/>
+    <col min="1540" max="1540" width="8" style="106" customWidth="1"/>
+    <col min="1541" max="1541" width="38" style="106" customWidth="1"/>
+    <col min="1542" max="1542" width="48.109375" style="106" customWidth="1"/>
+    <col min="1543" max="1792" width="9" style="106"/>
+    <col min="1793" max="1793" width="28.109375" style="106" customWidth="1"/>
+    <col min="1794" max="1794" width="10" style="106" customWidth="1"/>
+    <col min="1795" max="1795" width="14.33203125" style="106" customWidth="1"/>
+    <col min="1796" max="1796" width="8" style="106" customWidth="1"/>
+    <col min="1797" max="1797" width="38" style="106" customWidth="1"/>
+    <col min="1798" max="1798" width="48.109375" style="106" customWidth="1"/>
+    <col min="1799" max="2048" width="9" style="106"/>
+    <col min="2049" max="2049" width="28.109375" style="106" customWidth="1"/>
+    <col min="2050" max="2050" width="10" style="106" customWidth="1"/>
+    <col min="2051" max="2051" width="14.33203125" style="106" customWidth="1"/>
+    <col min="2052" max="2052" width="8" style="106" customWidth="1"/>
+    <col min="2053" max="2053" width="38" style="106" customWidth="1"/>
+    <col min="2054" max="2054" width="48.109375" style="106" customWidth="1"/>
+    <col min="2055" max="2304" width="9" style="106"/>
+    <col min="2305" max="2305" width="28.109375" style="106" customWidth="1"/>
+    <col min="2306" max="2306" width="10" style="106" customWidth="1"/>
+    <col min="2307" max="2307" width="14.33203125" style="106" customWidth="1"/>
+    <col min="2308" max="2308" width="8" style="106" customWidth="1"/>
+    <col min="2309" max="2309" width="38" style="106" customWidth="1"/>
+    <col min="2310" max="2310" width="48.109375" style="106" customWidth="1"/>
+    <col min="2311" max="2560" width="9" style="106"/>
+    <col min="2561" max="2561" width="28.109375" style="106" customWidth="1"/>
+    <col min="2562" max="2562" width="10" style="106" customWidth="1"/>
+    <col min="2563" max="2563" width="14.33203125" style="106" customWidth="1"/>
+    <col min="2564" max="2564" width="8" style="106" customWidth="1"/>
+    <col min="2565" max="2565" width="38" style="106" customWidth="1"/>
+    <col min="2566" max="2566" width="48.109375" style="106" customWidth="1"/>
+    <col min="2567" max="2816" width="9" style="106"/>
+    <col min="2817" max="2817" width="28.109375" style="106" customWidth="1"/>
+    <col min="2818" max="2818" width="10" style="106" customWidth="1"/>
+    <col min="2819" max="2819" width="14.33203125" style="106" customWidth="1"/>
+    <col min="2820" max="2820" width="8" style="106" customWidth="1"/>
+    <col min="2821" max="2821" width="38" style="106" customWidth="1"/>
+    <col min="2822" max="2822" width="48.109375" style="106" customWidth="1"/>
+    <col min="2823" max="3072" width="9" style="106"/>
+    <col min="3073" max="3073" width="28.109375" style="106" customWidth="1"/>
+    <col min="3074" max="3074" width="10" style="106" customWidth="1"/>
+    <col min="3075" max="3075" width="14.33203125" style="106" customWidth="1"/>
+    <col min="3076" max="3076" width="8" style="106" customWidth="1"/>
+    <col min="3077" max="3077" width="38" style="106" customWidth="1"/>
+    <col min="3078" max="3078" width="48.109375" style="106" customWidth="1"/>
+    <col min="3079" max="3328" width="9" style="106"/>
+    <col min="3329" max="3329" width="28.109375" style="106" customWidth="1"/>
+    <col min="3330" max="3330" width="10" style="106" customWidth="1"/>
+    <col min="3331" max="3331" width="14.33203125" style="106" customWidth="1"/>
+    <col min="3332" max="3332" width="8" style="106" customWidth="1"/>
+    <col min="3333" max="3333" width="38" style="106" customWidth="1"/>
+    <col min="3334" max="3334" width="48.109375" style="106" customWidth="1"/>
+    <col min="3335" max="3584" width="9" style="106"/>
+    <col min="3585" max="3585" width="28.109375" style="106" customWidth="1"/>
+    <col min="3586" max="3586" width="10" style="106" customWidth="1"/>
+    <col min="3587" max="3587" width="14.33203125" style="106" customWidth="1"/>
+    <col min="3588" max="3588" width="8" style="106" customWidth="1"/>
+    <col min="3589" max="3589" width="38" style="106" customWidth="1"/>
+    <col min="3590" max="3590" width="48.109375" style="106" customWidth="1"/>
+    <col min="3591" max="3840" width="9" style="106"/>
+    <col min="3841" max="3841" width="28.109375" style="106" customWidth="1"/>
+    <col min="3842" max="3842" width="10" style="106" customWidth="1"/>
+    <col min="3843" max="3843" width="14.33203125" style="106" customWidth="1"/>
+    <col min="3844" max="3844" width="8" style="106" customWidth="1"/>
+    <col min="3845" max="3845" width="38" style="106" customWidth="1"/>
+    <col min="3846" max="3846" width="48.109375" style="106" customWidth="1"/>
+    <col min="3847" max="4096" width="9" style="106"/>
+    <col min="4097" max="4097" width="28.109375" style="106" customWidth="1"/>
+    <col min="4098" max="4098" width="10" style="106" customWidth="1"/>
+    <col min="4099" max="4099" width="14.33203125" style="106" customWidth="1"/>
+    <col min="4100" max="4100" width="8" style="106" customWidth="1"/>
+    <col min="4101" max="4101" width="38" style="106" customWidth="1"/>
+    <col min="4102" max="4102" width="48.109375" style="106" customWidth="1"/>
+    <col min="4103" max="4352" width="9" style="106"/>
+    <col min="4353" max="4353" width="28.109375" style="106" customWidth="1"/>
+    <col min="4354" max="4354" width="10" style="106" customWidth="1"/>
+    <col min="4355" max="4355" width="14.33203125" style="106" customWidth="1"/>
+    <col min="4356" max="4356" width="8" style="106" customWidth="1"/>
+    <col min="4357" max="4357" width="38" style="106" customWidth="1"/>
+    <col min="4358" max="4358" width="48.109375" style="106" customWidth="1"/>
+    <col min="4359" max="4608" width="9" style="106"/>
+    <col min="4609" max="4609" width="28.109375" style="106" customWidth="1"/>
+    <col min="4610" max="4610" width="10" style="106" customWidth="1"/>
+    <col min="4611" max="4611" width="14.33203125" style="106" customWidth="1"/>
+    <col min="4612" max="4612" width="8" style="106" customWidth="1"/>
+    <col min="4613" max="4613" width="38" style="106" customWidth="1"/>
+    <col min="4614" max="4614" width="48.109375" style="106" customWidth="1"/>
+    <col min="4615" max="4864" width="9" style="106"/>
+    <col min="4865" max="4865" width="28.109375" style="106" customWidth="1"/>
+    <col min="4866" max="4866" width="10" style="106" customWidth="1"/>
+    <col min="4867" max="4867" width="14.33203125" style="106" customWidth="1"/>
+    <col min="4868" max="4868" width="8" style="106" customWidth="1"/>
+    <col min="4869" max="4869" width="38" style="106" customWidth="1"/>
+    <col min="4870" max="4870" width="48.109375" style="106" customWidth="1"/>
+    <col min="4871" max="5120" width="9" style="106"/>
+    <col min="5121" max="5121" width="28.109375" style="106" customWidth="1"/>
+    <col min="5122" max="5122" width="10" style="106" customWidth="1"/>
+    <col min="5123" max="5123" width="14.33203125" style="106" customWidth="1"/>
+    <col min="5124" max="5124" width="8" style="106" customWidth="1"/>
+    <col min="5125" max="5125" width="38" style="106" customWidth="1"/>
+    <col min="5126" max="5126" width="48.109375" style="106" customWidth="1"/>
+    <col min="5127" max="5376" width="9" style="106"/>
+    <col min="5377" max="5377" width="28.109375" style="106" customWidth="1"/>
+    <col min="5378" max="5378" width="10" style="106" customWidth="1"/>
+    <col min="5379" max="5379" width="14.33203125" style="106" customWidth="1"/>
+    <col min="5380" max="5380" width="8" style="106" customWidth="1"/>
+    <col min="5381" max="5381" width="38" style="106" customWidth="1"/>
+    <col min="5382" max="5382" width="48.109375" style="106" customWidth="1"/>
+    <col min="5383" max="5632" width="9" style="106"/>
+    <col min="5633" max="5633" width="28.109375" style="106" customWidth="1"/>
+    <col min="5634" max="5634" width="10" style="106" customWidth="1"/>
+    <col min="5635" max="5635" width="14.33203125" style="106" customWidth="1"/>
+    <col min="5636" max="5636" width="8" style="106" customWidth="1"/>
+    <col min="5637" max="5637" width="38" style="106" customWidth="1"/>
+    <col min="5638" max="5638" width="48.109375" style="106" customWidth="1"/>
+    <col min="5639" max="5888" width="9" style="106"/>
+    <col min="5889" max="5889" width="28.109375" style="106" customWidth="1"/>
+    <col min="5890" max="5890" width="10" style="106" customWidth="1"/>
+    <col min="5891" max="5891" width="14.33203125" style="106" customWidth="1"/>
+    <col min="5892" max="5892" width="8" style="106" customWidth="1"/>
+    <col min="5893" max="5893" width="38" style="106" customWidth="1"/>
+    <col min="5894" max="5894" width="48.109375" style="106" customWidth="1"/>
+    <col min="5895" max="6144" width="9" style="106"/>
+    <col min="6145" max="6145" width="28.109375" style="106" customWidth="1"/>
+    <col min="6146" max="6146" width="10" style="106" customWidth="1"/>
+    <col min="6147" max="6147" width="14.33203125" style="106" customWidth="1"/>
+    <col min="6148" max="6148" width="8" style="106" customWidth="1"/>
+    <col min="6149" max="6149" width="38" style="106" customWidth="1"/>
+    <col min="6150" max="6150" width="48.109375" style="106" customWidth="1"/>
+    <col min="6151" max="6400" width="9" style="106"/>
+    <col min="6401" max="6401" width="28.109375" style="106" customWidth="1"/>
+    <col min="6402" max="6402" width="10" style="106" customWidth="1"/>
+    <col min="6403" max="6403" width="14.33203125" style="106" customWidth="1"/>
+    <col min="6404" max="6404" width="8" style="106" customWidth="1"/>
+    <col min="6405" max="6405" width="38" style="106" customWidth="1"/>
+    <col min="6406" max="6406" width="48.109375" style="106" customWidth="1"/>
+    <col min="6407" max="6656" width="9" style="106"/>
+    <col min="6657" max="6657" width="28.109375" style="106" customWidth="1"/>
+    <col min="6658" max="6658" width="10" style="106" customWidth="1"/>
+    <col min="6659" max="6659" width="14.33203125" style="106" customWidth="1"/>
+    <col min="6660" max="6660" width="8" style="106" customWidth="1"/>
+    <col min="6661" max="6661" width="38" style="106" customWidth="1"/>
+    <col min="6662" max="6662" width="48.109375" style="106" customWidth="1"/>
+    <col min="6663" max="6912" width="9" style="106"/>
+    <col min="6913" max="6913" width="28.109375" style="106" customWidth="1"/>
+    <col min="6914" max="6914" width="10" style="106" customWidth="1"/>
+    <col min="6915" max="6915" width="14.33203125" style="106" customWidth="1"/>
+    <col min="6916" max="6916" width="8" style="106" customWidth="1"/>
+    <col min="6917" max="6917" width="38" style="106" customWidth="1"/>
+    <col min="6918" max="6918" width="48.109375" style="106" customWidth="1"/>
+    <col min="6919" max="7168" width="9" style="106"/>
+    <col min="7169" max="7169" width="28.109375" style="106" customWidth="1"/>
+    <col min="7170" max="7170" width="10" style="106" customWidth="1"/>
+    <col min="7171" max="7171" width="14.33203125" style="106" customWidth="1"/>
+    <col min="7172" max="7172" width="8" style="106" customWidth="1"/>
+    <col min="7173" max="7173" width="38" style="106" customWidth="1"/>
+    <col min="7174" max="7174" width="48.109375" style="106" customWidth="1"/>
+    <col min="7175" max="7424" width="9" style="106"/>
+    <col min="7425" max="7425" width="28.109375" style="106" customWidth="1"/>
+    <col min="7426" max="7426" width="10" style="106" customWidth="1"/>
+    <col min="7427" max="7427" width="14.33203125" style="106" customWidth="1"/>
+    <col min="7428" max="7428" width="8" style="106" customWidth="1"/>
+    <col min="7429" max="7429" width="38" style="106" customWidth="1"/>
+    <col min="7430" max="7430" width="48.109375" style="106" customWidth="1"/>
+    <col min="7431" max="7680" width="9" style="106"/>
+    <col min="7681" max="7681" width="28.109375" style="106" customWidth="1"/>
+    <col min="7682" max="7682" width="10" style="106" customWidth="1"/>
+    <col min="7683" max="7683" width="14.33203125" style="106" customWidth="1"/>
+    <col min="7684" max="7684" width="8" style="106" customWidth="1"/>
+    <col min="7685" max="7685" width="38" style="106" customWidth="1"/>
+    <col min="7686" max="7686" width="48.109375" style="106" customWidth="1"/>
+    <col min="7687" max="7936" width="9" style="106"/>
+    <col min="7937" max="7937" width="28.109375" style="106" customWidth="1"/>
+    <col min="7938" max="7938" width="10" style="106" customWidth="1"/>
+    <col min="7939" max="7939" width="14.33203125" style="106" customWidth="1"/>
+    <col min="7940" max="7940" width="8" style="106" customWidth="1"/>
+    <col min="7941" max="7941" width="38" style="106" customWidth="1"/>
+    <col min="7942" max="7942" width="48.109375" style="106" customWidth="1"/>
+    <col min="7943" max="8192" width="9" style="106"/>
+    <col min="8193" max="8193" width="28.109375" style="106" customWidth="1"/>
+    <col min="8194" max="8194" width="10" style="106" customWidth="1"/>
+    <col min="8195" max="8195" width="14.33203125" style="106" customWidth="1"/>
+    <col min="8196" max="8196" width="8" style="106" customWidth="1"/>
+    <col min="8197" max="8197" width="38" style="106" customWidth="1"/>
+    <col min="8198" max="8198" width="48.109375" style="106" customWidth="1"/>
+    <col min="8199" max="8448" width="9" style="106"/>
+    <col min="8449" max="8449" width="28.109375" style="106" customWidth="1"/>
+    <col min="8450" max="8450" width="10" style="106" customWidth="1"/>
+    <col min="8451" max="8451" width="14.33203125" style="106" customWidth="1"/>
+    <col min="8452" max="8452" width="8" style="106" customWidth="1"/>
+    <col min="8453" max="8453" width="38" style="106" customWidth="1"/>
+    <col min="8454" max="8454" width="48.109375" style="106" customWidth="1"/>
+    <col min="8455" max="8704" width="9" style="106"/>
+    <col min="8705" max="8705" width="28.109375" style="106" customWidth="1"/>
+    <col min="8706" max="8706" width="10" style="106" customWidth="1"/>
+    <col min="8707" max="8707" width="14.33203125" style="106" customWidth="1"/>
+    <col min="8708" max="8708" width="8" style="106" customWidth="1"/>
+    <col min="8709" max="8709" width="38" style="106" customWidth="1"/>
+    <col min="8710" max="8710" width="48.109375" style="106" customWidth="1"/>
+    <col min="8711" max="8960" width="9" style="106"/>
+    <col min="8961" max="8961" width="28.109375" style="106" customWidth="1"/>
+    <col min="8962" max="8962" width="10" style="106" customWidth="1"/>
+    <col min="8963" max="8963" width="14.33203125" style="106" customWidth="1"/>
+    <col min="8964" max="8964" width="8" style="106" customWidth="1"/>
+    <col min="8965" max="8965" width="38" style="106" customWidth="1"/>
+    <col min="8966" max="8966" width="48.109375" style="106" customWidth="1"/>
+    <col min="8967" max="9216" width="9" style="106"/>
+    <col min="9217" max="9217" width="28.109375" style="106" customWidth="1"/>
+    <col min="9218" max="9218" width="10" style="106" customWidth="1"/>
+    <col min="9219" max="9219" width="14.33203125" style="106" customWidth="1"/>
+    <col min="9220" max="9220" width="8" style="106" customWidth="1"/>
+    <col min="9221" max="9221" width="38" style="106" customWidth="1"/>
+    <col min="9222" max="9222" width="48.109375" style="106" customWidth="1"/>
+    <col min="9223" max="9472" width="9" style="106"/>
+    <col min="9473" max="9473" width="28.109375" style="106" customWidth="1"/>
+    <col min="9474" max="9474" width="10" style="106" customWidth="1"/>
+    <col min="9475" max="9475" width="14.33203125" style="106" customWidth="1"/>
+    <col min="9476" max="9476" width="8" style="106" customWidth="1"/>
+    <col min="9477" max="9477" width="38" style="106" customWidth="1"/>
+    <col min="9478" max="9478" width="48.109375" style="106" customWidth="1"/>
+    <col min="9479" max="9728" width="9" style="106"/>
+    <col min="9729" max="9729" width="28.109375" style="106" customWidth="1"/>
+    <col min="9730" max="9730" width="10" style="106" customWidth="1"/>
+    <col min="9731" max="9731" width="14.33203125" style="106" customWidth="1"/>
+    <col min="9732" max="9732" width="8" style="106" customWidth="1"/>
+    <col min="9733" max="9733" width="38" style="106" customWidth="1"/>
+    <col min="9734" max="9734" width="48.109375" style="106" customWidth="1"/>
+    <col min="9735" max="9984" width="9" style="106"/>
+    <col min="9985" max="9985" width="28.109375" style="106" customWidth="1"/>
+    <col min="9986" max="9986" width="10" style="106" customWidth="1"/>
+    <col min="9987" max="9987" width="14.33203125" style="106" customWidth="1"/>
+    <col min="9988" max="9988" width="8" style="106" customWidth="1"/>
+    <col min="9989" max="9989" width="38" style="106" customWidth="1"/>
+    <col min="9990" max="9990" width="48.109375" style="106" customWidth="1"/>
+    <col min="9991" max="10240" width="9" style="106"/>
+    <col min="10241" max="10241" width="28.109375" style="106" customWidth="1"/>
+    <col min="10242" max="10242" width="10" style="106" customWidth="1"/>
+    <col min="10243" max="10243" width="14.33203125" style="106" customWidth="1"/>
+    <col min="10244" max="10244" width="8" style="106" customWidth="1"/>
+    <col min="10245" max="10245" width="38" style="106" customWidth="1"/>
+    <col min="10246" max="10246" width="48.109375" style="106" customWidth="1"/>
+    <col min="10247" max="10496" width="9" style="106"/>
+    <col min="10497" max="10497" width="28.109375" style="106" customWidth="1"/>
+    <col min="10498" max="10498" width="10" style="106" customWidth="1"/>
+    <col min="10499" max="10499" width="14.33203125" style="106" customWidth="1"/>
+    <col min="10500" max="10500" width="8" style="106" customWidth="1"/>
+    <col min="10501" max="10501" width="38" style="106" customWidth="1"/>
+    <col min="10502" max="10502" width="48.109375" style="106" customWidth="1"/>
+    <col min="10503" max="10752" width="9" style="106"/>
+    <col min="10753" max="10753" width="28.109375" style="106" customWidth="1"/>
+    <col min="10754" max="10754" width="10" style="106" customWidth="1"/>
+    <col min="10755" max="10755" width="14.33203125" style="106" customWidth="1"/>
+    <col min="10756" max="10756" width="8" style="106" customWidth="1"/>
+    <col min="10757" max="10757" width="38" style="106" customWidth="1"/>
+    <col min="10758" max="10758" width="48.109375" style="106" customWidth="1"/>
+    <col min="10759" max="11008" width="9" style="106"/>
+    <col min="11009" max="11009" width="28.109375" style="106" customWidth="1"/>
+    <col min="11010" max="11010" width="10" style="106" customWidth="1"/>
+    <col min="11011" max="11011" width="14.33203125" style="106" customWidth="1"/>
+    <col min="11012" max="11012" width="8" style="106" customWidth="1"/>
+    <col min="11013" max="11013" width="38" style="106" customWidth="1"/>
+    <col min="11014" max="11014" width="48.109375" style="106" customWidth="1"/>
+    <col min="11015" max="11264" width="9" style="106"/>
+    <col min="11265" max="11265" width="28.109375" style="106" customWidth="1"/>
+    <col min="11266" max="11266" width="10" style="106" customWidth="1"/>
+    <col min="11267" max="11267" width="14.33203125" style="106" customWidth="1"/>
+    <col min="11268" max="11268" width="8" style="106" customWidth="1"/>
+    <col min="11269" max="11269" width="38" style="106" customWidth="1"/>
+    <col min="11270" max="11270" width="48.109375" style="106" customWidth="1"/>
+    <col min="11271" max="11520" width="9" style="106"/>
+    <col min="11521" max="11521" width="28.109375" style="106" customWidth="1"/>
+    <col min="11522" max="11522" width="10" style="106" customWidth="1"/>
+    <col min="11523" max="11523" width="14.33203125" style="106" customWidth="1"/>
+    <col min="11524" max="11524" width="8" style="106" customWidth="1"/>
+    <col min="11525" max="11525" width="38" style="106" customWidth="1"/>
+    <col min="11526" max="11526" width="48.109375" style="106" customWidth="1"/>
+    <col min="11527" max="11776" width="9" style="106"/>
+    <col min="11777" max="11777" width="28.109375" style="106" customWidth="1"/>
+    <col min="11778" max="11778" width="10" style="106" customWidth="1"/>
+    <col min="11779" max="11779" width="14.33203125" style="106" customWidth="1"/>
+    <col min="11780" max="11780" width="8" style="106" customWidth="1"/>
+    <col min="11781" max="11781" width="38" style="106" customWidth="1"/>
+    <col min="11782" max="11782" width="48.109375" style="106" customWidth="1"/>
+    <col min="11783" max="12032" width="9" style="106"/>
+    <col min="12033" max="12033" width="28.109375" style="106" customWidth="1"/>
+    <col min="12034" max="12034" width="10" style="106" customWidth="1"/>
+    <col min="12035" max="12035" width="14.33203125" style="106" customWidth="1"/>
+    <col min="12036" max="12036" width="8" style="106" customWidth="1"/>
+    <col min="12037" max="12037" width="38" style="106" customWidth="1"/>
+    <col min="12038" max="12038" width="48.109375" style="106" customWidth="1"/>
+    <col min="12039" max="12288" width="9" style="106"/>
+    <col min="12289" max="12289" width="28.109375" style="106" customWidth="1"/>
+    <col min="12290" max="12290" width="10" style="106" customWidth="1"/>
+    <col min="12291" max="12291" width="14.33203125" style="106" customWidth="1"/>
+    <col min="12292" max="12292" width="8" style="106" customWidth="1"/>
+    <col min="12293" max="12293" width="38" style="106" customWidth="1"/>
+    <col min="12294" max="12294" width="48.109375" style="106" customWidth="1"/>
+    <col min="12295" max="12544" width="9" style="106"/>
+    <col min="12545" max="12545" width="28.109375" style="106" customWidth="1"/>
+    <col min="12546" max="12546" width="10" style="106" customWidth="1"/>
+    <col min="12547" max="12547" width="14.33203125" style="106" customWidth="1"/>
+    <col min="12548" max="12548" width="8" style="106" customWidth="1"/>
+    <col min="12549" max="12549" width="38" style="106" customWidth="1"/>
+    <col min="12550" max="12550" width="48.109375" style="106" customWidth="1"/>
+    <col min="12551" max="12800" width="9" style="106"/>
+    <col min="12801" max="12801" width="28.109375" style="106" customWidth="1"/>
+    <col min="12802" max="12802" width="10" style="106" customWidth="1"/>
+    <col min="12803" max="12803" width="14.33203125" style="106" customWidth="1"/>
+    <col min="12804" max="12804" width="8" style="106" customWidth="1"/>
+    <col min="12805" max="12805" width="38" style="106" customWidth="1"/>
+    <col min="12806" max="12806" width="48.109375" style="106" customWidth="1"/>
+    <col min="12807" max="13056" width="9" style="106"/>
+    <col min="13057" max="13057" width="28.109375" style="106" customWidth="1"/>
+    <col min="13058" max="13058" width="10" style="106" customWidth="1"/>
+    <col min="13059" max="13059" width="14.33203125" style="106" customWidth="1"/>
+    <col min="13060" max="13060" width="8" style="106" customWidth="1"/>
+    <col min="13061" max="13061" width="38" style="106" customWidth="1"/>
+    <col min="13062" max="13062" width="48.109375" style="106" customWidth="1"/>
+    <col min="13063" max="13312" width="9" style="106"/>
+    <col min="13313" max="13313" width="28.109375" style="106" customWidth="1"/>
+    <col min="13314" max="13314" width="10" style="106" customWidth="1"/>
+    <col min="13315" max="13315" width="14.33203125" style="106" customWidth="1"/>
+    <col min="13316" max="13316" width="8" style="106" customWidth="1"/>
+    <col min="13317" max="13317" width="38" style="106" customWidth="1"/>
+    <col min="13318" max="13318" width="48.109375" style="106" customWidth="1"/>
+    <col min="13319" max="13568" width="9" style="106"/>
+    <col min="13569" max="13569" width="28.109375" style="106" customWidth="1"/>
+    <col min="13570" max="13570" width="10" style="106" customWidth="1"/>
+    <col min="13571" max="13571" width="14.33203125" style="106" customWidth="1"/>
+    <col min="13572" max="13572" width="8" style="106" customWidth="1"/>
+    <col min="13573" max="13573" width="38" style="106" customWidth="1"/>
+    <col min="13574" max="13574" width="48.109375" style="106" customWidth="1"/>
+    <col min="13575" max="13824" width="9" style="106"/>
+    <col min="13825" max="13825" width="28.109375" style="106" customWidth="1"/>
+    <col min="13826" max="13826" width="10" style="106" customWidth="1"/>
+    <col min="13827" max="13827" width="14.33203125" style="106" customWidth="1"/>
+    <col min="13828" max="13828" width="8" style="106" customWidth="1"/>
+    <col min="13829" max="13829" width="38" style="106" customWidth="1"/>
+    <col min="13830" max="13830" width="48.109375" style="106" customWidth="1"/>
+    <col min="13831" max="14080" width="9" style="106"/>
+    <col min="14081" max="14081" width="28.109375" style="106" customWidth="1"/>
+    <col min="14082" max="14082" width="10" style="106" customWidth="1"/>
+    <col min="14083" max="14083" width="14.33203125" style="106" customWidth="1"/>
+    <col min="14084" max="14084" width="8" style="106" customWidth="1"/>
+    <col min="14085" max="14085" width="38" style="106" customWidth="1"/>
+    <col min="14086" max="14086" width="48.109375" style="106" customWidth="1"/>
+    <col min="14087" max="14336" width="9" style="106"/>
+    <col min="14337" max="14337" width="28.109375" style="106" customWidth="1"/>
+    <col min="14338" max="14338" width="10" style="106" customWidth="1"/>
+    <col min="14339" max="14339" width="14.33203125" style="106" customWidth="1"/>
+    <col min="14340" max="14340" width="8" style="106" customWidth="1"/>
+    <col min="14341" max="14341" width="38" style="106" customWidth="1"/>
+    <col min="14342" max="14342" width="48.109375" style="106" customWidth="1"/>
+    <col min="14343" max="14592" width="9" style="106"/>
+    <col min="14593" max="14593" width="28.109375" style="106" customWidth="1"/>
+    <col min="14594" max="14594" width="10" style="106" customWidth="1"/>
+    <col min="14595" max="14595" width="14.33203125" style="106" customWidth="1"/>
+    <col min="14596" max="14596" width="8" style="106" customWidth="1"/>
+    <col min="14597" max="14597" width="38" style="106" customWidth="1"/>
+    <col min="14598" max="14598" width="48.109375" style="106" customWidth="1"/>
+    <col min="14599" max="14848" width="9" style="106"/>
+    <col min="14849" max="14849" width="28.109375" style="106" customWidth="1"/>
+    <col min="14850" max="14850" width="10" style="106" customWidth="1"/>
+    <col min="14851" max="14851" width="14.33203125" style="106" customWidth="1"/>
+    <col min="14852" max="14852" width="8" style="106" customWidth="1"/>
+    <col min="14853" max="14853" width="38" style="106" customWidth="1"/>
+    <col min="14854" max="14854" width="48.109375" style="106" customWidth="1"/>
+    <col min="14855" max="15104" width="9" style="106"/>
+    <col min="15105" max="15105" width="28.109375" style="106" customWidth="1"/>
+    <col min="15106" max="15106" width="10" style="106" customWidth="1"/>
+    <col min="15107" max="15107" width="14.33203125" style="106" customWidth="1"/>
+    <col min="15108" max="15108" width="8" style="106" customWidth="1"/>
+    <col min="15109" max="15109" width="38" style="106" customWidth="1"/>
+    <col min="15110" max="15110" width="48.109375" style="106" customWidth="1"/>
+    <col min="15111" max="15360" width="9" style="106"/>
+    <col min="15361" max="15361" width="28.109375" style="106" customWidth="1"/>
+    <col min="15362" max="15362" width="10" style="106" customWidth="1"/>
+    <col min="15363" max="15363" width="14.33203125" style="106" customWidth="1"/>
+    <col min="15364" max="15364" width="8" style="106" customWidth="1"/>
+    <col min="15365" max="15365" width="38" style="106" customWidth="1"/>
+    <col min="15366" max="15366" width="48.109375" style="106" customWidth="1"/>
+    <col min="15367" max="15616" width="9" style="106"/>
+    <col min="15617" max="15617" width="28.109375" style="106" customWidth="1"/>
+    <col min="15618" max="15618" width="10" style="106" customWidth="1"/>
+    <col min="15619" max="15619" width="14.33203125" style="106" customWidth="1"/>
+    <col min="15620" max="15620" width="8" style="106" customWidth="1"/>
+    <col min="15621" max="15621" width="38" style="106" customWidth="1"/>
+    <col min="15622" max="15622" width="48.109375" style="106" customWidth="1"/>
+    <col min="15623" max="15872" width="9" style="106"/>
+    <col min="15873" max="15873" width="28.109375" style="106" customWidth="1"/>
+    <col min="15874" max="15874" width="10" style="106" customWidth="1"/>
+    <col min="15875" max="15875" width="14.33203125" style="106" customWidth="1"/>
+    <col min="15876" max="15876" width="8" style="106" customWidth="1"/>
+    <col min="15877" max="15877" width="38" style="106" customWidth="1"/>
+    <col min="15878" max="15878" width="48.109375" style="106" customWidth="1"/>
+    <col min="15879" max="16128" width="9" style="106"/>
+    <col min="16129" max="16129" width="28.109375" style="106" customWidth="1"/>
+    <col min="16130" max="16130" width="10" style="106" customWidth="1"/>
+    <col min="16131" max="16131" width="14.33203125" style="106" customWidth="1"/>
+    <col min="16132" max="16132" width="8" style="106" customWidth="1"/>
+    <col min="16133" max="16133" width="38" style="106" customWidth="1"/>
+    <col min="16134" max="16134" width="48.109375" style="106" customWidth="1"/>
+    <col min="16135" max="16384" width="9" style="106"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" s="115" customFormat="1" ht="75.75" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+    <row r="2" spans="1:6" s="103" customFormat="1" ht="75.75" customHeight="1">
+      <c r="A2" s="102"/>
+      <c r="B2" s="134" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="116"/>
-      <c r="B3" s="117"/>
-      <c r="E3" s="119"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="E3" s="107"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="120" t="s">
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="122"/>
+      <c r="F4" s="109"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="120" t="s">
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="123" t="s">
-        <v>45</v>
+      <c r="F5" s="110" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="125" t="str">
+      <c r="B6" s="136" t="str">
         <f>B5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="120" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="128"/>
+      <c r="F6" s="112"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129"/>
-      <c r="B7" s="130"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="117"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="105"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="118"/>
+      <c r="A8" s="106"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="132" t="s">
+      <c r="A9" s="116" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="136" customFormat="1">
-      <c r="A10" s="133" t="s">
+    <row r="10" spans="1:6" s="120" customFormat="1">
+      <c r="A10" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="134" t="s">
+      <c r="C10" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="134" t="s">
+      <c r="D10" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="134" t="s">
+      <c r="E10" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="135" t="s">
+      <c r="F10" s="119" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="142" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="137" t="s">
+    <row r="11" spans="1:6" s="126" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A11" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="142" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="143"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="144"/>
-    </row>
-    <row r="13" spans="1:6" s="142" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A13" s="143"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="144"/>
-    </row>
-    <row r="14" spans="1:6" s="142" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A14" s="143"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="144"/>
-    </row>
-    <row r="15" spans="1:6" s="142" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A15" s="143"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="144"/>
-    </row>
-    <row r="16" spans="1:6" s="142" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="143"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="144"/>
-    </row>
-    <row r="17" spans="1:6" s="142" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="148"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="126" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A12" s="127"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="128"/>
+    </row>
+    <row r="13" spans="1:6" s="126" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A13" s="127"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="128"/>
+    </row>
+    <row r="14" spans="1:6" s="126" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A14" s="127"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="128"/>
+    </row>
+    <row r="15" spans="1:6" s="126" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A15" s="127"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="128"/>
+    </row>
+    <row r="16" spans="1:6" s="126" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="127"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="128"/>
+    </row>
+    <row r="17" spans="1:6" s="126" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A17" s="129"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2637,25 +2632,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="25">
+    <row r="1" spans="2:6" ht="24.6">
       <c r="B1" s="5"/>
       <c r="D1" s="6" t="s">
         <v>16</v>
@@ -2668,39 +2663,39 @@
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105" t="e">
+      <c r="C3" s="141"/>
+      <c r="D3" s="142" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105" t="e">
+      <c r="C4" s="141"/>
+      <c r="D4" s="142" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="2:6" s="9" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="139"/>
+      <c r="D5" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="10"/>
@@ -2733,7 +2728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="14">
+    <row r="9" spans="2:6">
       <c r="B9" s="20">
         <v>1</v>
       </c>
@@ -2741,12 +2736,12 @@
         <v>24</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" spans="2:6" ht="14">
+    <row r="10" spans="2:6">
       <c r="B10" s="20">
         <v>2</v>
       </c>
@@ -2754,12 +2749,12 @@
         <v>25</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" spans="2:6" ht="14">
+    <row r="11" spans="2:6">
       <c r="B11" s="20">
         <v>3</v>
       </c>
@@ -2767,12 +2762,12 @@
         <v>26</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" spans="2:6" ht="14">
+    <row r="12" spans="2:6">
       <c r="B12" s="20">
         <v>4</v>
       </c>
@@ -2780,12 +2775,12 @@
         <v>27</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="23"/>
     </row>
-    <row r="13" spans="2:6" ht="14">
+    <row r="13" spans="2:6">
       <c r="B13" s="20">
         <v>5</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="23"/>
@@ -2865,11 +2860,11 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" location="Feature1!A1" display="Feature1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D10" location="Feature2!A1" display="Feature1" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D11" location="Feature1!A1" display="Feature1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D12" location="Feature2!A1" display="Feature2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="D13" location="Feature2!A1" display="Feature2" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="D9" location="Feature1!A1" display="Feature1"/>
+    <hyperlink ref="D10" location="Feature2!A1" display="Feature1"/>
+    <hyperlink ref="D11" location="Feature1!A1" display="Feature1"/>
+    <hyperlink ref="D12" location="Feature2!A1" display="Feature2"/>
+    <hyperlink ref="D13" location="Feature2!A1" display="Feature2"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777783" bottom="1.1506944444444445" header="0.51180555555555562" footer="0.98402777777777783"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2880,35 +2875,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
+      <c r="B1" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="52"/>
@@ -2924,14 +2919,14 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="106" t="s">
+      <c r="D3" s="142"/>
+      <c r="E3" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="106"/>
+      <c r="F3" s="143"/>
       <c r="G3" s="55"/>
       <c r="H3" s="56"/>
     </row>
@@ -2939,14 +2934,14 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="142"/>
+      <c r="E4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="143"/>
       <c r="G4" s="55"/>
       <c r="H4" s="56"/>
     </row>
@@ -2954,33 +2949,33 @@
       <c r="B5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="105" t="str">
+      <c r="C5" s="142" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="142"/>
+      <c r="E5" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="143"/>
       <c r="G5" s="55"/>
       <c r="H5" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21.75" customHeight="1">
       <c r="A6" s="52"/>
       <c r="B6" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="107" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="52"/>
@@ -3011,28 +3006,28 @@
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
     </row>
-    <row r="10" spans="1:8" ht="14">
+    <row r="10" spans="1:8">
       <c r="A10" s="62"/>
       <c r="B10" s="63" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="64" t="s">
-        <v>63</v>
-      </c>
       <c r="F10" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3046,7 +3041,7 @@
       </c>
       <c r="D11" s="71">
         <f>'Feature 1'!B6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="71">
         <f>'Feature 1'!C6</f>
@@ -3054,7 +3049,7 @@
       </c>
       <c r="F11" s="71">
         <f>'Feature 1'!D6</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11" s="71">
         <f>'Feature 1'!E6</f>
@@ -3062,7 +3057,7 @@
       </c>
       <c r="H11" s="73">
         <f>'Feature 1'!B4</f>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3109,11 +3104,11 @@
       <c r="A14" s="68"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="76">
         <f>SUM(D9:D13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="76">
         <f>SUM(E9:E13)</f>
@@ -3121,7 +3116,7 @@
       </c>
       <c r="F14" s="76">
         <f>SUM(F9:F13)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G14" s="76">
         <f>SUM(G9:G13)</f>
@@ -3129,7 +3124,7 @@
       </c>
       <c r="H14" s="77">
         <f>SUM(H9:H13)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3146,15 +3141,15 @@
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="81" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="61"/>
       <c r="E16" s="82">
         <f>(D14+E14)*100/(H14-G14)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F16" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="61"/>
       <c r="H16" s="36"/>
@@ -3163,15 +3158,15 @@
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="61"/>
       <c r="E17" s="82">
         <f>D14*100/(H14-G14)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="61"/>
       <c r="H17" s="36"/>
@@ -3201,22 +3196,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
@@ -3229,23 +3224,22 @@
     <col min="13" max="13" width="10.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="7" style="29" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="28.6640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="30" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14" thickBot="1"/>
-    <row r="2" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:18" s="32" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A2" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="109" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="89"/>
       <c r="G2" s="83"/>
       <c r="H2" s="33"/>
@@ -3259,19 +3253,19 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" ht="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="32" customFormat="1" ht="26.4" hidden="1">
       <c r="A3" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="89"/>
       <c r="G3" s="83"/>
       <c r="H3" s="33"/>
@@ -3285,20 +3279,20 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="32" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="111">
+        <v>74</v>
+      </c>
+      <c r="B4" s="148">
         <f>COUNTA(A12:A1000)</f>
-        <v>8</v>
-      </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="89"/>
       <c r="G4" s="83"/>
       <c r="H4" s="33"/>
@@ -3312,21 +3306,21 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="32" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="A5" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="91" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="91" t="s">
+      <c r="C5" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="94" t="s">
         <v>32</v>
@@ -3347,13 +3341,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:18" s="32" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="92">
         <f>COUNTIF($F10:$F998,B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="92">
         <f t="shared" ref="C6:E6" si="0">COUNTIF($F10:$F998,C5)</f>
@@ -3361,7 +3355,7 @@
       </c>
       <c r="D6" s="92">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="98">
         <f t="shared" si="0"/>
@@ -3380,13 +3374,13 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="35"/>
     </row>
-    <row r="7" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:18" s="32" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="92">
         <f>COUNTIF($F10:$F998,B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:E7" si="1">COUNTIF($F10:$F998,C5)</f>
@@ -3394,7 +3388,7 @@
       </c>
       <c r="D7" s="92">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="98">
         <f t="shared" si="1"/>
@@ -3413,13 +3407,13 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="35"/>
     </row>
-    <row r="8" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:18" s="32" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A8" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="96">
         <f>COUNTIF($F10:$F998,B5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="96">
         <f t="shared" ref="C8:E8" si="2">COUNTIF($F10:$F998,C5)</f>
@@ -3427,7 +3421,7 @@
       </c>
       <c r="D8" s="96">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E8" s="97">
         <f t="shared" si="2"/>
@@ -3467,22 +3461,22 @@
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="90" t="s">
         <v>34</v>
@@ -3491,7 +3485,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="90" t="s">
         <v>34</v>
@@ -3500,7 +3494,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="90" t="s">
         <v>34</v>
@@ -3514,9 +3508,7 @@
       <c r="Q10" s="37"/>
     </row>
     <row r="11" spans="1:18" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>24</v>
-      </c>
+      <c r="A11" s="86"/>
       <c r="B11" s="86"/>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -3533,100 +3525,76 @@
       <c r="O11" s="88"/>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:18" s="47" customFormat="1" ht="121" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:18" s="47" customFormat="1" ht="121.05" customHeight="1" outlineLevel="1">
       <c r="A12" s="42" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="C12" s="150" t="s">
+        <v>80</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>39</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E12" s="44"/>
       <c r="F12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="G12" s="151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
-      <c r="L12" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="45"/>
       <c r="Q12" s="46"/>
     </row>
-    <row r="13" spans="1:18" ht="14" outlineLevel="1">
-      <c r="A13" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>40</v>
-      </c>
+    <row r="13" spans="1:18" outlineLevel="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="42"/>
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
-      <c r="F13" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
-      <c r="I13" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
-      <c r="L13" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="45"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="1:18" ht="14" outlineLevel="1">
-      <c r="A14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>41</v>
-      </c>
+    <row r="14" spans="1:18" outlineLevel="1">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
-      <c r="F14" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
-      <c r="I14" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="I14" s="42"/>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
-      <c r="L14" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L14" s="42"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="45"/>
       <c r="Q14" s="46"/>
     </row>
     <row r="15" spans="1:18" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="86" t="s">
-        <v>25</v>
-      </c>
+      <c r="A15" s="86"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
@@ -3643,66 +3611,44 @@
       <c r="O15" s="40"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:18" ht="14" outlineLevel="1">
-      <c r="A16" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>42</v>
-      </c>
+    <row r="16" spans="1:18" outlineLevel="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
-      <c r="F16" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="F16" s="42"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
-      <c r="I16" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="45"/>
       <c r="Q16" s="46"/>
     </row>
-    <row r="17" spans="1:17" ht="14" outlineLevel="1">
-      <c r="A17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>43</v>
-      </c>
+    <row r="17" spans="1:17" outlineLevel="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
-      <c r="F17" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="F17" s="42"/>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
-      <c r="I17" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="I17" s="42"/>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
-      <c r="L17" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L17" s="42"/>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
       <c r="O17" s="50"/>
       <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="1:17" s="32" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="86" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="86"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
@@ -3719,29 +3665,19 @@
       <c r="O18" s="40"/>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" spans="1:17" ht="14" outlineLevel="1">
-      <c r="A19" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>44</v>
-      </c>
+    <row r="19" spans="1:17" outlineLevel="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="F19" s="42"/>
       <c r="G19" s="42"/>
       <c r="H19" s="42"/>
-      <c r="I19" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="42" t="s">
-        <v>61</v>
-      </c>
+      <c r="L19" s="42"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="45"/>
@@ -3754,12 +3690,12 @@
     <mergeCell ref="B3:E3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G20:G147 I12:I19 J2:J3 J9 J20:J147 F12:F19 M2:M3 M9 M20:M147 L12:L19" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G20:G147 I12:I19 J2:J3 J9 J20:J147 F12:F19 M2:M3 M9 M20:M147 L12:L19">
       <formula1>$R$2:$R$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F10 I10 L10" xr:uid="{08AF428C-8A3C-764D-8BC9-663BD25ECDEB}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F10 I10 L10"/>
   </dataValidations>
   <pageMargins left="0.74791666666666667" right="0.25" top="0.75" bottom="0.98402777777777772" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3772,7 +3708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC93D8D-BD9B-1543-9B0A-1ADE76A24277}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -3783,10 +3719,10 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" style="1" customWidth="1"/>
@@ -3800,23 +3736,23 @@
     <col min="13" max="13" width="10.6640625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="7" style="29" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="15" max="15" width="28.6640625" style="29" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" style="30" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14" thickBot="1"/>
+    <row r="1" spans="1:18" ht="13.8" thickBot="1"/>
     <row r="2" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="109" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="89"/>
       <c r="G2" s="83"/>
       <c r="H2" s="33"/>
@@ -3830,19 +3766,19 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="32" customFormat="1" ht="14">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="32" customFormat="1" ht="26.4">
       <c r="A3" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="112"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="89"/>
       <c r="G3" s="83"/>
       <c r="H3" s="33"/>
@@ -3856,20 +3792,20 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="32" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="100" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="111">
+        <v>74</v>
+      </c>
+      <c r="B4" s="148">
         <f>COUNTA(A12:A998)</f>
         <v>7</v>
       </c>
-      <c r="C4" s="111"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="112"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="89"/>
       <c r="G4" s="83"/>
       <c r="H4" s="33"/>
@@ -3883,21 +3819,21 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="32" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="93" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="91" t="s">
-        <v>63</v>
-      </c>
       <c r="D5" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="94" t="s">
         <v>32</v>
@@ -3920,7 +3856,7 @@
     </row>
     <row r="6" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="92">
         <f>COUNTIF($F10:$F996,B5)</f>
@@ -3953,7 +3889,7 @@
     </row>
     <row r="7" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="92">
         <f>COUNTIF($F10:$F996,B5)</f>
@@ -3986,7 +3922,7 @@
     </row>
     <row r="8" spans="1:18" s="32" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="96">
         <f>COUNTIF($F10:$F996,B5)</f>
@@ -4038,22 +3974,22 @@
     </row>
     <row r="10" spans="1:18" s="32" customFormat="1" ht="25.5" customHeight="1">
       <c r="A10" s="90" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="90" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="90" t="s">
         <v>34</v>
@@ -4062,7 +3998,7 @@
         <v>31</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J10" s="90" t="s">
         <v>34</v>
@@ -4071,7 +4007,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M10" s="90" t="s">
         <v>34</v>
@@ -4104,9 +4040,9 @@
       <c r="O11" s="88"/>
       <c r="Q11" s="41"/>
     </row>
-    <row r="12" spans="1:18" s="47" customFormat="1" ht="121" customHeight="1" outlineLevel="1">
+    <row r="12" spans="1:18" s="47" customFormat="1" ht="121.05" customHeight="1" outlineLevel="1">
       <c r="A12" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>36</v>
@@ -4121,26 +4057,26 @@
         <v>39</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
       <c r="L12" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="45"/>
       <c r="Q12" s="46"/>
     </row>
-    <row r="13" spans="1:18" ht="14" outlineLevel="1">
+    <row r="13" spans="1:18" outlineLevel="1">
       <c r="A13" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>40</v>
@@ -4149,26 +4085,26 @@
       <c r="D13" s="48"/>
       <c r="E13" s="48"/>
       <c r="F13" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="42"/>
       <c r="K13" s="42"/>
       <c r="L13" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="45"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" spans="1:18" ht="14" outlineLevel="1">
+    <row r="14" spans="1:18" outlineLevel="1">
       <c r="A14" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="42" t="s">
         <v>41</v>
@@ -4177,17 +4113,17 @@
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J14" s="42"/>
       <c r="K14" s="42"/>
       <c r="L14" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
@@ -4214,9 +4150,9 @@
       <c r="O15" s="40"/>
       <c r="Q15" s="41"/>
     </row>
-    <row r="16" spans="1:18" ht="14" outlineLevel="1">
+    <row r="16" spans="1:18" outlineLevel="1">
       <c r="A16" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="42" t="s">
         <v>42</v>
@@ -4225,26 +4161,26 @@
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
       <c r="F16" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
       <c r="L16" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="45"/>
       <c r="Q16" s="46"/>
     </row>
-    <row r="17" spans="1:17" ht="14" outlineLevel="1">
+    <row r="17" spans="1:17" outlineLevel="1">
       <c r="A17" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="42" t="s">
         <v>43</v>
@@ -4253,17 +4189,17 @@
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
       <c r="F17" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="49"/>
       <c r="I17" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J17" s="49"/>
       <c r="K17" s="49"/>
       <c r="L17" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
@@ -4282,8 +4218,8 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F10 I10 L10" xr:uid="{BA601D90-C760-2A4B-9DCB-05D64CA1BA46}"/>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G18:G145 I12:I17 J2:J3 J9 J18:J145 F12:F17 M2:M3 M9 M18:M145 L12:L17" xr:uid="{CEBB1DD6-5D0C-9A4C-93A4-3065C1A7F369}">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="F10 I10 L10"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G3 G9 G18:G145 I12:I17 J2:J3 J9 J18:J145 F12:F17 M2:M3 M9 M18:M145 L12:L17">
       <formula1>$R$2:$R$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
